--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ebi3-Il27ra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ebi3-Il27ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.143382</v>
+        <v>10.03073166666667</v>
       </c>
       <c r="H2">
-        <v>9.430146000000001</v>
+        <v>30.092195</v>
       </c>
       <c r="I2">
-        <v>0.3901511487518625</v>
+        <v>0.5703560915538793</v>
       </c>
       <c r="J2">
-        <v>0.3901511487518625</v>
+        <v>0.5703560915538795</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.977152666666667</v>
+        <v>2.171010666666667</v>
       </c>
       <c r="N2">
-        <v>5.931458</v>
+        <v>6.513032</v>
       </c>
       <c r="O2">
-        <v>0.5296093122610759</v>
+        <v>0.5189085589295733</v>
       </c>
       <c r="P2">
-        <v>0.5296093122610759</v>
+        <v>0.5189085589295733</v>
       </c>
       <c r="Q2">
-        <v>6.214946103652001</v>
+        <v>21.77682544280444</v>
       </c>
       <c r="R2">
-        <v>55.93451493286801</v>
+        <v>195.99142898524</v>
       </c>
       <c r="S2">
-        <v>0.2066276815683426</v>
+        <v>0.2959626575449273</v>
       </c>
       <c r="T2">
-        <v>0.2066276815683426</v>
+        <v>0.2959626575449274</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.143382</v>
+        <v>10.03073166666667</v>
       </c>
       <c r="H3">
-        <v>9.430146000000001</v>
+        <v>30.092195</v>
       </c>
       <c r="I3">
-        <v>0.3901511487518625</v>
+        <v>0.5703560915538793</v>
       </c>
       <c r="J3">
-        <v>0.3901511487518625</v>
+        <v>0.5703560915538795</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>4.684564</v>
       </c>
       <c r="O3">
-        <v>0.4182763695339315</v>
+        <v>0.3732302181922886</v>
       </c>
       <c r="P3">
-        <v>0.4182763695339315</v>
+        <v>0.3732302181922886</v>
       </c>
       <c r="Q3">
-        <v>4.908458051816001</v>
+        <v>15.66320148644222</v>
       </c>
       <c r="R3">
-        <v>44.176122466344</v>
+        <v>140.96881337798</v>
       </c>
       <c r="S3">
-        <v>0.1631910060694219</v>
+        <v>0.2128741284979553</v>
       </c>
       <c r="T3">
-        <v>0.1631910060694219</v>
+        <v>0.2128741284979553</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.143382</v>
+        <v>10.03073166666667</v>
       </c>
       <c r="H4">
-        <v>9.430146000000001</v>
+        <v>30.092195</v>
       </c>
       <c r="I4">
-        <v>0.3901511487518625</v>
+        <v>0.5703560915538793</v>
       </c>
       <c r="J4">
-        <v>0.3901511487518625</v>
+        <v>0.5703560915538795</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.04091566666666667</v>
+        <v>0.4199566666666667</v>
       </c>
       <c r="N4">
-        <v>0.122747</v>
+        <v>1.25987</v>
       </c>
       <c r="O4">
-        <v>0.01095986083895566</v>
+        <v>0.1003768024076347</v>
       </c>
       <c r="P4">
-        <v>0.01095986083895566</v>
+        <v>0.1003768024076346</v>
       </c>
       <c r="Q4">
-        <v>0.128613570118</v>
+        <v>4.212472634961111</v>
       </c>
       <c r="R4">
-        <v>1.157522131062</v>
+        <v>37.91225371465</v>
       </c>
       <c r="S4">
-        <v>0.004276002296479104</v>
+        <v>0.05725052070389453</v>
       </c>
       <c r="T4">
-        <v>0.004276002296479104</v>
+        <v>0.05725052070389453</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.143382</v>
+        <v>10.03073166666667</v>
       </c>
       <c r="H5">
-        <v>9.430146000000001</v>
+        <v>30.092195</v>
       </c>
       <c r="I5">
-        <v>0.3901511487518625</v>
+        <v>0.5703560915538793</v>
       </c>
       <c r="J5">
-        <v>0.3901511487518625</v>
+        <v>0.5703560915538795</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.04771566666666666</v>
+        <v>0.03131333333333333</v>
       </c>
       <c r="N5">
-        <v>0.143147</v>
+        <v>0.09394</v>
       </c>
       <c r="O5">
-        <v>0.01278134047686694</v>
+        <v>0.007484420470503464</v>
       </c>
       <c r="P5">
-        <v>0.01278134047686694</v>
+        <v>0.007484420470503464</v>
       </c>
       <c r="Q5">
-        <v>0.149988567718</v>
+        <v>0.3140956442555555</v>
       </c>
       <c r="R5">
-        <v>1.349897109462</v>
+        <v>2.8268607983</v>
       </c>
       <c r="S5">
-        <v>0.004986654669638315</v>
+        <v>0.004268784807102202</v>
       </c>
       <c r="T5">
-        <v>0.004986654669638315</v>
+        <v>0.004268784807102203</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -779,7 +779,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.143382</v>
+        <v>7.556056333333333</v>
       </c>
       <c r="H6">
-        <v>9.430146000000001</v>
+        <v>22.668169</v>
       </c>
       <c r="I6">
-        <v>0.3901511487518625</v>
+        <v>0.4296439084461207</v>
       </c>
       <c r="J6">
-        <v>0.3901511487518625</v>
+        <v>0.4296439084461207</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1059233333333333</v>
+        <v>2.171010666666667</v>
       </c>
       <c r="N6">
-        <v>0.31777</v>
+        <v>6.513032</v>
       </c>
       <c r="O6">
-        <v>0.02837311688916993</v>
+        <v>0.5189085589295733</v>
       </c>
       <c r="P6">
-        <v>0.02837311688916993</v>
+        <v>0.5189085589295733</v>
       </c>
       <c r="Q6">
-        <v>0.33295749938</v>
+        <v>16.40427889760089</v>
       </c>
       <c r="R6">
-        <v>2.99661749442</v>
+        <v>147.638510078408</v>
       </c>
       <c r="S6">
-        <v>0.01106980414798052</v>
+        <v>0.222945901384646</v>
       </c>
       <c r="T6">
-        <v>0.01106980414798052</v>
+        <v>0.222945901384646</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.913449333333333</v>
+        <v>7.556056333333333</v>
       </c>
       <c r="H7">
-        <v>14.740348</v>
+        <v>22.668169</v>
       </c>
       <c r="I7">
-        <v>0.6098488512481375</v>
+        <v>0.4296439084461207</v>
       </c>
       <c r="J7">
-        <v>0.6098488512481375</v>
+        <v>0.4296439084461207</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.977152666666667</v>
+        <v>1.561521333333333</v>
       </c>
       <c r="N7">
-        <v>5.931458</v>
+        <v>4.684564</v>
       </c>
       <c r="O7">
-        <v>0.5296093122610759</v>
+        <v>0.3732302181922886</v>
       </c>
       <c r="P7">
-        <v>0.5296093122610759</v>
+        <v>0.3732302181922886</v>
       </c>
       <c r="Q7">
-        <v>9.714639451931555</v>
+        <v>11.79894316036844</v>
       </c>
       <c r="R7">
-        <v>87.431755067384</v>
+        <v>106.190488443316</v>
       </c>
       <c r="S7">
-        <v>0.3229816306927333</v>
+        <v>0.1603560896943333</v>
       </c>
       <c r="T7">
-        <v>0.3229816306927333</v>
+        <v>0.1603560896943333</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.913449333333333</v>
+        <v>7.556056333333333</v>
       </c>
       <c r="H8">
-        <v>14.740348</v>
+        <v>22.668169</v>
       </c>
       <c r="I8">
-        <v>0.6098488512481375</v>
+        <v>0.4296439084461207</v>
       </c>
       <c r="J8">
-        <v>0.6098488512481375</v>
+        <v>0.4296439084461207</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.561521333333333</v>
+        <v>0.4199566666666667</v>
       </c>
       <c r="N8">
-        <v>4.684564</v>
+        <v>1.25987</v>
       </c>
       <c r="O8">
-        <v>0.4182763695339315</v>
+        <v>0.1003768024076347</v>
       </c>
       <c r="P8">
-        <v>0.4182763695339315</v>
+        <v>0.1003768024076346</v>
       </c>
       <c r="Q8">
-        <v>7.672455954252444</v>
+        <v>3.173216230892222</v>
       </c>
       <c r="R8">
-        <v>69.052103588272</v>
+        <v>28.55894607803</v>
       </c>
       <c r="S8">
-        <v>0.2550853634645096</v>
+        <v>0.04312628170374013</v>
       </c>
       <c r="T8">
-        <v>0.2550853634645096</v>
+        <v>0.04312628170374012</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.913449333333333</v>
+        <v>7.556056333333333</v>
       </c>
       <c r="H9">
-        <v>14.740348</v>
+        <v>22.668169</v>
       </c>
       <c r="I9">
-        <v>0.6098488512481375</v>
+        <v>0.4296439084461207</v>
       </c>
       <c r="J9">
-        <v>0.6098488512481375</v>
+        <v>0.4296439084461207</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,152 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.04091566666666667</v>
+        <v>0.03131333333333333</v>
       </c>
       <c r="N9">
-        <v>0.122747</v>
+        <v>0.09394</v>
       </c>
       <c r="O9">
-        <v>0.01095986083895566</v>
+        <v>0.007484420470503464</v>
       </c>
       <c r="P9">
-        <v>0.01095986083895566</v>
+        <v>0.007484420470503464</v>
       </c>
       <c r="Q9">
-        <v>0.2010370551062222</v>
+        <v>0.2366053106511111</v>
       </c>
       <c r="R9">
-        <v>1.809333495956</v>
+        <v>2.12944779586</v>
       </c>
       <c r="S9">
-        <v>0.00668385854247656</v>
+        <v>0.003215635663401262</v>
       </c>
       <c r="T9">
-        <v>0.006683858542476558</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>4.913449333333333</v>
-      </c>
-      <c r="H10">
-        <v>14.740348</v>
-      </c>
-      <c r="I10">
-        <v>0.6098488512481375</v>
-      </c>
-      <c r="J10">
-        <v>0.6098488512481375</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.04771566666666666</v>
-      </c>
-      <c r="N10">
-        <v>0.143147</v>
-      </c>
-      <c r="O10">
-        <v>0.01278134047686694</v>
-      </c>
-      <c r="P10">
-        <v>0.01278134047686694</v>
-      </c>
-      <c r="Q10">
-        <v>0.2344485105728889</v>
-      </c>
-      <c r="R10">
-        <v>2.110036595156</v>
-      </c>
-      <c r="S10">
-        <v>0.007794685807228624</v>
-      </c>
-      <c r="T10">
-        <v>0.007794685807228624</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>4.913449333333333</v>
-      </c>
-      <c r="H11">
-        <v>14.740348</v>
-      </c>
-      <c r="I11">
-        <v>0.6098488512481375</v>
-      </c>
-      <c r="J11">
-        <v>0.6098488512481375</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M11">
-        <v>0.1059233333333333</v>
-      </c>
-      <c r="N11">
-        <v>0.31777</v>
-      </c>
-      <c r="O11">
-        <v>0.02837311688916993</v>
-      </c>
-      <c r="P11">
-        <v>0.02837311688916993</v>
-      </c>
-      <c r="Q11">
-        <v>0.520448931551111</v>
-      </c>
-      <c r="R11">
-        <v>4.68404038396</v>
-      </c>
-      <c r="S11">
-        <v>0.01730331274118941</v>
-      </c>
-      <c r="T11">
-        <v>0.01730331274118941</v>
+        <v>0.003215635663401262</v>
       </c>
     </row>
   </sheetData>
